--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agencies" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Individual Investments" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -736,4 +749,940 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>UII</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bureau</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Investment Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total FY2021 Spending ($M)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CIO Rating</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t># of Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>422-000000004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Data Management and Delivery</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$8.330</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>422-000001327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>iTRAK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$8.671</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>422-000001328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mission Support Systems</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$50.306</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>422-000000003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Administrative Applications</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$2.953</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>422-000000026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Human Resources Support System</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$2.450</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>422-000001363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Financial Services Support</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$2.612</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>422-999990060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>E-Rulemaking</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$0.017</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>422-999990160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Grants.gov</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$0.323</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>422-999990230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Integrated Acquisition Environment</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$0.720</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>422-999991100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LOB: Financial Management</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$0.139</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>422-999991200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LOB: Human Resource Management</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$0.068</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>422-999991218</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USAJOBS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$0.010</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>422-999993100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LOB: Geospatial</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$0.025</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>422-999993200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LOB: Budget Formulation</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$0.120</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>422-999993400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LOB: Hiring Assessment</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>422-000000016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>IT Security and Privacy Initiatives</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$8.877</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>422-000001362</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>IT Management</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$5.433</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>422-000001364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$10.949</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>422-000001365</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Data Center and Cloud</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$7.463</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>422-000001366</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>End User</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$16.231</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>422-000001369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$0.800</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>422-000001370</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$9.888</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,22 +808,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>422-000000004</t>
+          <t>005-000000018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Agricultural Marketing Service</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Data Management and Delivery</t>
+          <t>MRP-AMS-Web-Based Supply Chain Management (WBSCM)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$8.330</t>
+          <t>$31.642</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -848,22 +848,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>422-000001327</t>
+          <t>005-000000035</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of Chief Information Officer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>iTRAK</t>
+          <t>SO-OCIO-DISC-AgLearn</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$8.671</t>
+          <t>$0.000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>422-000001328</t>
+          <t>005-000000039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of the Secretary</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mission Support Systems</t>
+          <t>DA-OCP-Integrated Acquisition System (IAS)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$50.306</t>
+          <t>$0.000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -913,12 +913,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -928,37 +928,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>422-000000003</t>
+          <t>005-000000042</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Food and Nutrition Service</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Administrative Applications</t>
+          <t>FNCS-FNS-Anti-Fraud Locator Using EBT Retailer Transactions (ALERT)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$2.953</t>
+          <t>$5.949</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Non-major IT</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>422-000000026</t>
+          <t>005-000000063</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Risk Management Agency</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Human Resources Support System</t>
+          <t>FPAC-RMA-13 Emerging Information Technology Architecture (EITA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$2.450</t>
+          <t>$16.468</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Non-major IT</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1008,37 +1008,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>422-000001363</t>
+          <t>005-000000073</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Forest Service</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Financial Services Support</t>
+          <t>NRE-FS-AgPRS - USDA Public Safety Land Mobile Radio System</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$2.612</t>
+          <t>$42.569</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Non-major IT</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1048,37 +1048,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>422-999990060</t>
+          <t>005-000000185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Animal and Plant Health Inspection Service</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>E-Rulemaking</t>
+          <t>MRP-APHIS-Certification, Accreditation, Registration, Permitting, and Other Licensing (CARPOL)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$0.017</t>
+          <t>$16.427</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1088,37 +1088,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>422-999990160</t>
+          <t>005-000000235</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of Chief Financial Officer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Grants.gov</t>
+          <t>SO-OCFO-NFC-Payroll Services</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$0.323</t>
+          <t>$0.000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1128,37 +1128,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>422-999990230</t>
+          <t>005-000001425</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of Chief Financial Officer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Integrated Acquisition Environment</t>
+          <t>SO-OCFO-Financial Management Modernization Initiative (FMMI)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$0.720</t>
+          <t>$121.330</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1168,37 +1168,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>422-999991100</t>
+          <t>005-000001605</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Agricultural Marketing Service</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LOB: Financial Management</t>
+          <t>MRP-AMS-Conformance Management</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$0.139</t>
+          <t>$20.851</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1208,37 +1208,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>422-999991200</t>
+          <t>005-000001659</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Animal and Plant Health Inspection Service</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LOB: Human Resource Management</t>
+          <t>MRP-APHIS-Animal Disease Traceability Information System (ADTIS)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$0.068</t>
+          <t>$4.354</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1248,37 +1248,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>422-999991218</t>
+          <t>005-000001838</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Rural Development</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>USAJOBS</t>
+          <t>RD-Enterprise Content Management (ECM)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$0.010</t>
+          <t>$4.416</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1288,37 +1288,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>422-999993100</t>
+          <t>005-000001870</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Farm Service Agency</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LOB: Geospatial</t>
+          <t>FPAC-FSA-097 Farm Program Modernization (MIDAS)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$0.025</t>
+          <t>$8.369</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1328,37 +1328,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>422-999993200</t>
+          <t>005-000002148</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Food Safety and Inspection Service</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LOB: Budget Formulation</t>
+          <t>FS-FSIS-Public Health Information System (PHIS)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$0.120</t>
+          <t>$6.610</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1368,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>422-999993400</t>
+          <t>005-000002223</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Forest Service</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LOB: Hiring Assessment</t>
+          <t>NRE-FS-Natural Resource Manager (NRM)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$0.000</t>
+          <t>$29.185</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Funding Transfer</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1408,37 +1408,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>422-000000016</t>
+          <t>005-000002376</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Natural Resources Conservation Service</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IT Security and Privacy Initiatives</t>
+          <t>FPAC-NRCS-Conservation Delivery Streamline Initiative (CDSI)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$8.877</t>
+          <t>$2.672</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Standard IT Infrastructure</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1448,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>422-000001362</t>
+          <t>005-000002394</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Food and Nutrition Service</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IT Management</t>
+          <t>FNCS-FNS-Supplemental Nutrition Assistance Program (SNAP) Support</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$5.433</t>
+          <t>$9.289</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Standard IT Infrastructure</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1488,37 +1488,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>422-000001364</t>
+          <t>005-000003010</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of Chief Financial Officer</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>SO-OCFO-FSSP-Pegasys</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$10.949</t>
+          <t>$33.380</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Standard IT Infrastructure</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1528,37 +1528,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>422-000001365</t>
+          <t>005-000003190</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of Chief Financial Officer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Data Center and Cloud</t>
+          <t>SO-OCFO-NFC-Human Capital Management Services</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$7.463</t>
+          <t>$0.000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Standard IT Infrastructure</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1568,37 +1568,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>422-000001366</t>
+          <t>005-000003195</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Office of Chief Financial Officer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>End User</t>
+          <t>SO-OCFO-NFC-Employee Services</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$16.231</t>
+          <t>$0.000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Standard IT Infrastructure</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1608,27 +1608,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>422-000001369</t>
+          <t>005-000003220</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Foreign Agricultural Service</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>TFAA-FAS-IMART</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$0.800</t>
+          <t>$3.639</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Standard IT Infrastructure</t>
+          <t>Major IT</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1648,37 +1648,7517 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>422-000001370</t>
+          <t>005-000003240</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>National Science Foundation</t>
+          <t>Executive Operations</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Platform</t>
+          <t>DA-OES-Correspondence Management System (CMS)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$9.888</t>
+          <t>$0.000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005-000003245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NRE-FS-Interagency Resource Ordering Capability (IROC)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$2.673</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005-000003255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DA-OO-Emergency Response</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$0.321</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005-000003272</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-125 Farm Programs</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$25.521</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005-000003273</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-126 Farm Loan Programs</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$43.220</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005-000003276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-129 Program Financial Services</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$18.878</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005-000003297</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NRE-FS-Open Forest (FS Enterprise ePermit)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$2.000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005-000003310</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-National Bio Agro Defense Facility (NBAF)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$14.650</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005-000003311</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-1001 Customer Engagement and Management Services</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$26.475</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005-000003325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-127 Geospatial Services</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$47.745</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005-000003326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DA-OCX-Contact Center</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005-000003327</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-Robotics Process Automation (RPA)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005-000003328</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SO-OCIO-Enterprise Data Analytics Platform and Toolset (EDAPT)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005-000003353</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DA-OCX-Customer Experience</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$0.300</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005-000003355</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Office of the General Counsel</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SO-OGC-FOIAXpress</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005-000003400</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-Overseas Operations</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>$0.918</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005-000003410</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>RD-Residential Loans, Grants &amp; Guarantees (RLGG)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>$10.963</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005-000003415</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>RD-Commercial Loans, Grants &amp; Guarantees (CLGG)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>$21.198</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005-000003435</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NRE-FS-Mission Support Services</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>$48.711</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005-000003440</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NRE-FS-Wildland Fire &amp; Aviation Management</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>$38.700</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005-999990010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NRE-FS-Recreation.gov</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>$0.001</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005-000000027</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Store Tracking and Redemption System (STARS)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>$8.976</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005-000000045</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-MIS 2000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>$7.319</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005-000000047</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Financial Management Support System (FMSS)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>$5.133</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005-000000074</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-VS Laboratory and Regulatory Applications (VSLRA)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>$3.858</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005-000000097</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Office of Civil Rights</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SO-OASCR-Office of the Assistant Secretary for Civil Rights</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>$0.297</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005-000000160</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Emergency Management Response Services 2.0 (EMRS-2)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>$1.429</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005-000000187</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DA-OHRM-OneUSDA Human Resources Enterprise Solution Project</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005-000000236</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>FS-FSIS-Laboratory General Support System (Lab GSS)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>$3.272</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005-000000276</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Agricultural Research Service</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>REE-ARS-Application Standard Investment</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>$45.601</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005-000001405</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Phytosanitary Certificate Issuance and Tracking System (PCIT)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>$4.458</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005-000001606</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Public Good IT Investments</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>$4.431</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005-000001786</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Veterinary Services Process Streamlining (VSPS)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>$1.497</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005-000001822</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Electronic Permits System (ePermits)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>$2.208</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005-000001861</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Agricultural Quarantine Activity System (AQAS)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>$1.082</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005-000001867</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Regulatory IT Investment</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>$6.519</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005-000002179</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Special Nutrition Programs and Administrative Support</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>$12.357</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005-000002188</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Commodity Treatment Information System (CTIS)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>$1.782</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005-000002193</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Offshore Pest Information Program (OPIP)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>$0.155</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005-000002196</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Cost Management System (ACMS)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>$0.539</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005-000002197</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Animal Care Information System</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>$1.055</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005-000002206</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Exotic Pest Information and Prediction Systems (EPIPS)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>$0.922</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005-000002241</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Integrated Plant Health Information System (IPHIS)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>$2.501</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005-000002312</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MRP-APHIS Cloud Software</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>$2.848</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005-000002336</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Investigation Tracking Enforcement Management System (ITEMS)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>$0.579</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005-000002339</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MRP-AMS-International Trade</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>$4.522</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005-000002353</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Agricultural Risk Management System (ARM)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>$5.239</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005-000002360</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-SITC National Information, Communication, and Activity System (SNICAS)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>$0.590</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005-000002377</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Natural Resources Conservation Service</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FPAC-NRCS-Customer Service Toolkits (CST)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>$45.305</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005-000002381</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Natural Resources Conservation Service</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FPAC-NRCS-Management Applications (MGT)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>$12.535</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005-000002383</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Natural Resources Conservation Service</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FPAC-NRCS-Natural Resources Information and Delivery (NRID)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>$20.110</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005-000002388</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Natural Resources Conservation Service</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FPAC-NRCS-Program Contracts, Easements and Grants (CEG)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>$28.039</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005-000002389</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Natural Resources Conservation Service</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FPAC-NRCS-Smartech Management Programs (SMP)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>$15.322</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005-000002390</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Comprehensive and Integrated Animal Health Surveillance Services</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>$5.056</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005-000002391</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Food Programs Reporting</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>$3.126</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005-000002392</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Nutrition Information Web Tools</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>$3.344</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005-000003020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SO-OHA-NADTrack</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>$0.531</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005-000003050</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DA-OO-Customer Service</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>$5.987</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005-000003135</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SO-OCFO-A123 Compliance Reporting Tool</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>$2.622</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005-000003253</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FS-FSIS Consolidated Business Applications Support</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>$9.214</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005-000003275</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-128 Enterprise Mission Delivery Services</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>$21.076</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005-000003320</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Income Stabilization</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>$0.326</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005-000003337</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-2001 FBC Administrative Services</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>$13.328</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005-000003338</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-2002 FBC IT Services</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>$28.476</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005-000003365</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>National Institute of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>REE-NIFA-Grants Management and Reporting II</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>$18.740</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005-000003390</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NRE-FS-Research and Development</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>$5.684</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005-000003395</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-Application Development and Support</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>$13.126</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005-000003420</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>RD-Rural Development Enterprise Services (RDES)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>$24.208</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005-000003425</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>RD-Business Support Services (BSS)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>$0.871</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005-000003430</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NRE-FS-Nation's Forests &amp; Grasslands</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>$13.388</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Non-major IT</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005-000000272</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-IPAS FMMI Support Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>$2.711</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005-000001508</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Electronic Benefit Transfer (EBT) -- Account Management Agent (AMA) External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>$0.929</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005-000002318</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MRP-APHIS to CDC-External Shared Services Type 04 Investment (National Select Registry)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005-000003250</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-FOIA Portal</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005-000003329</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>$18.549</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005-000003330</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>$63.777</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005-000003331</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SO-OCIO-Exec Front Office Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>$2.703</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005-000003332</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DA-OHS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>$1.127</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005-000003333</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Office of the General Counsel</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SO-OGC-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>$2.680</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005-000003334</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>$12.985</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005-000003335</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-4001 Funds Transfer Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>$441.450</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005-000003336</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>$51.009</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005-000003339</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>FS-FSIS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>$41.643</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005-000003340</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NRE-FS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>$145.670</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005-000003341</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>RD-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>$59.658</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005-000003342</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Agricultural Research Service</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>REE-ARS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>$20.701</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005-000003343</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Economic Research Service</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>REE-ERS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>$3.118</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005-000003344</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>National Agricultural Statistics Service</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>REE-NASS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>$15.304</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005-000003345</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>National Institute of Food and Agriculture</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>REE-NIFA-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>$2.676</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005-000003347</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SO-OCFO-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>$4.228</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005-000003348</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Office of Inspector General</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SO-OIG-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>$1.894</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005-000003350</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>$13.558</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005-000003351</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>$17.067</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005-000003352</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>$12.513</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005-000003354</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SO-OCIO-ISC Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>$4.829</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005-000003356</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SO-OCIO to GSA External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>$58.207</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005-000003359</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>DA-OCP-IAS-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>$3.808</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005-000003361</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>NRE-FS-to-Department of Interior External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>$3.701</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005-000003362</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SO-OCIO to DOC External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>$2.028</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005-000003363</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SO-OCIO to DOI External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>$5.467</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005-000003364</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SO-OCIO to DOJ External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>$0.550</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005-000003366</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>$0.500</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005-000003405</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-External Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>$2.222</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005-000003455</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Office of Civil Rights</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>SO-OASCR-Internal Shared Services Type 04 Investment</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005-999990020</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Benefits.gov</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005-999990060</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-E-Rulemaking</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005-999990160</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Grants.gov</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005-999990230</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Integrated Award Environment</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005-999990900</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Performance Management LoB</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005-999991100</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Financial Management LoB</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005-999991200</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Human Resources LoB</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005-999991218</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-USAJOBS</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005-999991219</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Enterprise HR Integration</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005-999993100</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Geospatial LoB</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005-999993200</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Budget Formulation and Execution LoB</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005-999994100</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>DM-OCIO-EGOV-Disaster Assistance</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Funding Transfer</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005-000000186</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-USDA Foundation Services</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>Standard IT Infrastructure</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005-000000229</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-NITC-USDA Enterprise Data Center &amp; Hosting Shared Services</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005-000000231</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-ENS-USDA Enterprise Telecommunications Shared Services</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>--</t>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005-000000232</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-USDA End User Seat Services</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005-000000279</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>National Agricultural Statistics Service</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>REE-NASS-Data and Applications</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>$19.770</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005-000000330</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-USDA Enterprise Geospatial Shared Services (EGMO)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005-000001580</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>RD-IT Management</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>$7.065</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005-000001696</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>SO-OCIO-Executive IT Management</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>$17.204</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005-000001712</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Office of Inspector General</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SO-OIG-IT Modernization</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>$5.946</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005-000001713</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>FS-FSIS-IT Management</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>$6.734</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005-000001762</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SO-OC-Public Outreach and Digital Communication IT Systems ITM</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005-000001763</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-IT Management Standard Investment</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>$3.058</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005-000001764</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Agricultural Research Service</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>REE-ARS-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>$2.662</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005-000002218</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Office of the General Counsel</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>SO-OGC-IT Infrastructure ITM</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>$0.276</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005-000002224</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-USDA Identity &amp; Access Management (IAM)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005-000002294</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-IT Management</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>$5.498</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005-000002321</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-Optimized Computing Environment (OCE)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005-000002335</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>SO-OCIO-Information Security Center (ISC)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>$44.660</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005-000003070</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Agricultural Research Service</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>REE-ARS-IT Management</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>$1.927</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005-000003085</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MRP-AMS-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>$0.450</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005-000003095</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>$3.750</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005-000003100</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-IT Management</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>$3.043</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005-000003105</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise IT Security &amp; Compliance Standard Investment</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>$13.890</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005-000003115</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>FS-FSIS-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>$6.978</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005-000003125</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>SO-OC-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005-000003130</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SO-OC-IT Management</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005-000003140</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-IT Security and Compliance Standard Investment</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>$0.870</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005-000003145</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SO-OCFO-FMMI-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>$2.789</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005-000003150</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SO-OCFO-FMMI-IT Management</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>$0.770</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005-000003180</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>RD-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>$3.762</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005-000003185</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>$4.649</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005-000003205</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC-IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005-000003210</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC-IT Management</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005-000003225</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>DA-OHS-Office of Homeland Security (OHS)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>$0.100</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005-000003230</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-ENS USDA Network (USDANet)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005-000003235</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-USDA Enterprise Application Services (EAS)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005-000003256</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>FS-FSIS End-User Standard Investment</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>$24.272</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005-000003257</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>FS-FSIS Network Standard Investment</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>$22.355</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005-000003259</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Economic Research Service</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>REE-ERS Data Center and Cloud Investment</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>$7.989</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005-000003261</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>MRP-APHIS End User Services</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>$3.150</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005-000003262</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>MRP-APHIS Network Services</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>$15.445</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005-000003264</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>MRP-APHIS Data Centers and Clouds</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>$4.865</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005-000003265</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Data Center-Cloud</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>$5.533</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005-000003266</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Network Standard Investment</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>$3.318</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005-000003268</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Applications Investment</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>$3.164</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005-000003271</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Platform Investment</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>$7.949</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005-000003290</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Agricultural Research Service</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>REE-ARS-Data Center &amp; Cloud Standard Investment</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>$7.419</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005-000003291</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Data Center &amp; Cloud Standard Investment</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>$2.619</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005-000003292</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>MRP-AMS-End User Standard Investment</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>$0.940</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005-000003293</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Network Standard Investment</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>$4.214</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>005-000003301</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-End User Standard Investment</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>$0.534</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005-000003303</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise Network Standard Investment</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>$31.350</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005-000003305</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise Application Standard Investment</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>$27.561</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005-000003307</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise Delivery Standard Investment</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>$9.886</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005-000003309</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>National Agricultural Statistics Service</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>REE-NASS-Data Center &amp; Cloud Standard Investment</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>$10.626</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005-000003312</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3002 IT Management</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>$27.303</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005-000003313</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3001 IT Security and Compliance</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>$14.227</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005-000003314</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3003 Network</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>$0.679</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>005-000003315</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3004 Data Center and Cloud Computing</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>$1.909</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005-000003316</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3005 End User</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>$31.793</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005-000003317</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3006 Output</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>$0.148</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005-000003318</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3007 Application</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>$20.744</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>005-000003319</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-3008 Delivery</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>$68.141</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005-000003322</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>FS-FSIS-Delivery Standard Investment</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>$7.249</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005-000003323</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise Platform Standard Investment</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>$4.493</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005-000003360</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise Cloud &amp; Data Standard Investment</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>$22.320</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>005-000003370</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise IT Management (NEW)</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>$19.659</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>005-000003375</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-USDA Demand Services</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>005-000003380</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-USDA Telecom Services</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005-000003385</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>SO-OCIO-CEC-USDA Mobility Management Services</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>005-000003445</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>NRE-FS-Enterprise End User Standard Investment (NEW)</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>$36.068</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>005-000003450</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Executive Operations</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>SO-OCE-Local Area Network and Data Support</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>$0.039</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Standard IT Infrastructure</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
